--- a/dataconfig/API.xlsx
+++ b/dataconfig/API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -57,16 +57,19 @@
     <t>yes</t>
   </si>
   <si>
-    <t>"http://192.168.0.123:8082/account/partner/login"</t>
+    <t>http://192.168.0.174:8082/account/partner/login</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>partner_login</t>
   </si>
   <si>
-    <t>code=1</t>
+    <t>"code=1"</t>
   </si>
 </sst>
 </file>
@@ -74,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +91,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,14 +132,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,74 +215,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,41 +228,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -253,25 +250,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,19 +376,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,133 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +455,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +494,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -511,39 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,12 +1052,12 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="6" max="6" width="42.75" customWidth="1"/>
+    <col min="6" max="6" width="48.125" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
   </cols>
@@ -1103,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="5:11">
+    <row r="2" spans="5:11">
       <c r="E2" t="s">
         <v>12</v>
       </c>
@@ -1113,14 +1110,20 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="http://192.168.0.174:8082/account/partner/login" tooltip="http://192.168.0.174:8082/account/partner/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/dataconfig/API.xlsx
+++ b/dataconfig/API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="12405"/>
+    <workbookView windowWidth="25230" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>"code=1"</t>
+  </si>
+  <si>
+    <t>http://192.168.0.174:8082/userPartner/show</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
 </sst>
 </file>
@@ -77,9 +83,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -100,53 +106,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,75 +204,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,49 +256,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,25 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,103 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +447,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,18 +493,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,50 +537,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,19 +567,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,112 +588,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,13 +1055,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="6" max="6" width="48.125" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
@@ -1120,9 +1126,24 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="5:8">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://192.168.0.174:8082/account/partner/login" tooltip="http://192.168.0.174:8082/account/partner/login"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://192.168.0.174:8082/userPartner/show" tooltip="http://192.168.0.174:8082/userPartner/show"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dataconfig/API.xlsx
+++ b/dataconfig/API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +54,9 @@
     <t>实际结果</t>
   </si>
   <si>
+    <t>partner_login</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
@@ -66,10 +69,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>partner_login</t>
-  </si>
-  <si>
-    <t>"code=1"</t>
+    <t>18328207604</t>
+  </si>
+  <si>
+    <t>partner_show</t>
   </si>
   <si>
     <t>http://192.168.0.174:8082/userPartner/show</t>
@@ -83,9 +86,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -113,6 +116,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,10 +130,93 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,96 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +259,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,13 +337,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,157 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,55 +457,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +478,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -533,6 +503,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,137 +570,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +709,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,14 +1067,16 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="48.125" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -1106,38 +1117,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="5:11">
+    <row r="2" spans="3:11">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="5:8">
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
